--- a/2110C1.xlsx
+++ b/2110C1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aatika\Desktop\Ramazan Ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF45625-BCA7-4D8A-9B8B-C9658BCFB45A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0229C-D219-48C8-A9ED-0606312E85A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Roll No</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>ahmed</t>
+  </si>
+  <si>
+    <t>Student13386858</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +978,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>

--- a/2110C1.xlsx
+++ b/2110C1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aatika\Desktop\Ramazan Ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0229C-D219-48C8-A9ED-0606312E85A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF324DD-E40F-4C2A-A4F2-49D6888DF6C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Roll No</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Student13386858</t>
+  </si>
+  <si>
+    <t>Student1336445</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +962,9 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
